--- a/source_data.xlsx
+++ b/source_data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\manuscript\20230323 manuscript\version NC revision-1\Interception_ICMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E146A7-CFAD-4801-B8EB-8ED6460B506E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01572929-0787-481E-9B2D-72C74E797A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="585" windowWidth="17505" windowHeight="14085" xr2:uid="{94C6CDAF-EADB-40DF-B455-438104C84A51}"/>
+    <workbookView xWindow="2700" yWindow="1545" windowWidth="17505" windowHeight="14085" activeTab="1" xr2:uid="{94C6CDAF-EADB-40DF-B455-438104C84A51}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig 5" sheetId="1" r:id="rId1"/>
+    <sheet name="Fig 6" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="15">
   <si>
     <t>Fig 5b</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,12 +57,50 @@
     <t>monkey L moving</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Fig 6f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moving</t>
+  </si>
+  <si>
+    <t>moving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpt=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpt=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpt=30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpt=40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fig 6h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +118,17 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -104,11 +155,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -425,7 +480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF703DD-9556-4009-BF32-E25E60197008}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -1364,4 +1419,4504 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C8B625-287A-454F-A9BD-AF456E0D349E}">
+  <dimension ref="A1:J241"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="3">
+        <v>28.1879829186887</v>
+      </c>
+      <c r="C2" s="3">
+        <v>16.8504339909646</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <v>43.7578033742762</v>
+      </c>
+      <c r="C3" s="3">
+        <v>26.946301913789799</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>95.037726282150103</v>
+      </c>
+      <c r="C4" s="3">
+        <v>77.661929779386597</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <v>12.899402053345201</v>
+      </c>
+      <c r="C5" s="3">
+        <v>11.005009320213601</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>60</v>
+      </c>
+      <c r="J5" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
+        <v>25.025479068006199</v>
+      </c>
+      <c r="C6" s="3">
+        <v>28.917696316653799</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <v>46.532028352768798</v>
+      </c>
+      <c r="C7" s="3">
+        <v>20.313437806027402</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>80</v>
+      </c>
+      <c r="I7" s="2">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <v>39.953404772686</v>
+      </c>
+      <c r="C8" s="3">
+        <v>28.880512746143499</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <v>58.384742905656601</v>
+      </c>
+      <c r="C9" s="3">
+        <v>33.613656981106402</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>80</v>
+      </c>
+      <c r="J9" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
+        <v>37.062832227355401</v>
+      </c>
+      <c r="C10" s="3">
+        <v>38.198480274344703</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>60</v>
+      </c>
+      <c r="I10" s="2">
+        <v>20</v>
+      </c>
+      <c r="J10" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <v>84.149962396763996</v>
+      </c>
+      <c r="C11" s="3">
+        <v>59.099451195547701</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
+        <v>43.038461537329098</v>
+      </c>
+      <c r="C12" s="3">
+        <v>34.101954992517101</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>40</v>
+      </c>
+      <c r="J12" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
+        <v>30.229260712327601</v>
+      </c>
+      <c r="C13" s="3">
+        <v>18.8963231398739</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
+        <v>39.2256138047698</v>
+      </c>
+      <c r="C14" s="3">
+        <v>33.4134610731411</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="3">
+        <v>48.2349781067226</v>
+      </c>
+      <c r="C15" s="3">
+        <v>49.362045032082897</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>120</v>
+      </c>
+      <c r="I15" s="2">
+        <v>60</v>
+      </c>
+      <c r="J15" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="3">
+        <v>60.873971467459199</v>
+      </c>
+      <c r="C16" s="3">
+        <v>27.834635067665602</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>80</v>
+      </c>
+      <c r="I16" s="2">
+        <v>100</v>
+      </c>
+      <c r="J16" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="3">
+        <v>146.03243474966601</v>
+      </c>
+      <c r="C17" s="3">
+        <v>126.932060135425</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="3">
+        <v>37.103234111930803</v>
+      </c>
+      <c r="C18" s="3">
+        <v>26.068303000850001</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>20</v>
+      </c>
+      <c r="I18" s="2">
+        <v>120</v>
+      </c>
+      <c r="J18" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="3">
+        <v>28.981388875071801</v>
+      </c>
+      <c r="C19" s="3">
+        <v>21.863088508467001</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>40</v>
+      </c>
+      <c r="J19" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="3">
+        <v>63.560974735975499</v>
+      </c>
+      <c r="C20" s="3">
+        <v>32.052603346202801</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>20</v>
+      </c>
+      <c r="J20" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="3">
+        <v>54.955390623820001</v>
+      </c>
+      <c r="C21" s="3">
+        <v>29.6507440032624</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2">
+        <v>80</v>
+      </c>
+      <c r="J21" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="3">
+        <v>47.0545557188046</v>
+      </c>
+      <c r="C22" s="3">
+        <v>27.4771718419058</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>80</v>
+      </c>
+      <c r="J22" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="3">
+        <v>56.280227494211204</v>
+      </c>
+      <c r="C23" s="3">
+        <v>32.390970857983</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="3">
+        <v>61.856414104622402</v>
+      </c>
+      <c r="C24" s="3">
+        <v>38.176520222889401</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>80</v>
+      </c>
+      <c r="I24" s="2">
+        <v>60</v>
+      </c>
+      <c r="J24" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="3">
+        <v>53.338784380021103</v>
+      </c>
+      <c r="C25" s="3">
+        <v>38.236874101873397</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>60</v>
+      </c>
+      <c r="I25" s="2">
+        <v>120</v>
+      </c>
+      <c r="J25" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="3">
+        <v>70.875662004739098</v>
+      </c>
+      <c r="C26" s="3">
+        <v>45.953829946098502</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="3">
+        <v>40.6300213593072</v>
+      </c>
+      <c r="C27" s="3">
+        <v>22.288145022760201</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>40</v>
+      </c>
+      <c r="I27" s="2">
+        <v>100</v>
+      </c>
+      <c r="J27" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="3">
+        <v>46.120837434055098</v>
+      </c>
+      <c r="C28" s="3">
+        <v>45.489952087482401</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>20</v>
+      </c>
+      <c r="J28" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="3">
+        <v>46.440272854750297</v>
+      </c>
+      <c r="C29" s="3">
+        <v>29.8110320842042</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="3">
+        <v>135.52133626663999</v>
+      </c>
+      <c r="C30" s="3">
+        <v>45.910134164930597</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>40</v>
+      </c>
+      <c r="J30" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="3">
+        <v>46.2220801291963</v>
+      </c>
+      <c r="C31" s="3">
+        <v>34.877213160115197</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>60</v>
+      </c>
+      <c r="I31" s="2">
+        <v>100</v>
+      </c>
+      <c r="J31" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="3">
+        <v>43.139909221185803</v>
+      </c>
+      <c r="C32" s="3">
+        <v>23.410220682706601</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>20</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="3">
+        <v>35.887785842888803</v>
+      </c>
+      <c r="C33" s="3">
+        <v>27.442244125043299</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="3">
+        <v>51.9512519694959</v>
+      </c>
+      <c r="C34" s="3">
+        <v>42.799645284695302</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>40</v>
+      </c>
+      <c r="I34" s="2">
+        <v>80</v>
+      </c>
+      <c r="J34" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="3">
+        <v>59.980440858435102</v>
+      </c>
+      <c r="C35" s="3">
+        <v>43.762692776265197</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>20</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="3">
+        <v>64.852293740359698</v>
+      </c>
+      <c r="C36" s="3">
+        <v>38.424201966819702</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>100</v>
+      </c>
+      <c r="J36" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="3">
+        <v>36.6279293400993</v>
+      </c>
+      <c r="C37" s="3">
+        <v>24.2729428923973</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>80</v>
+      </c>
+      <c r="J37" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="3">
+        <v>56.7624829139152</v>
+      </c>
+      <c r="C38" s="3">
+        <v>32.331610915276698</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="3">
+        <v>52.051335692532497</v>
+      </c>
+      <c r="C39" s="3">
+        <v>34.981136009293202</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>20</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="3">
+        <v>33.898534381237603</v>
+      </c>
+      <c r="C40" s="3">
+        <v>23.608478466578301</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>60</v>
+      </c>
+      <c r="I40" s="2">
+        <v>80</v>
+      </c>
+      <c r="J40" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="3">
+        <v>77.145869892432799</v>
+      </c>
+      <c r="C41" s="3">
+        <v>51.707691373050899</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>40</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="3">
+        <v>71.116420033715201</v>
+      </c>
+      <c r="C42" s="3">
+        <v>48.602150965150997</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>40</v>
+      </c>
+      <c r="I42" s="2">
+        <v>60</v>
+      </c>
+      <c r="J42" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="3">
+        <v>33.6699215836978</v>
+      </c>
+      <c r="C43" s="3">
+        <v>24.332638872386699</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>80</v>
+      </c>
+      <c r="I43" s="2">
+        <v>40</v>
+      </c>
+      <c r="J43" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="3">
+        <v>56.755207447359901</v>
+      </c>
+      <c r="C44" s="3">
+        <v>28.425927877421401</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="3">
+        <v>59.966234945401602</v>
+      </c>
+      <c r="C45" s="3">
+        <v>45.112671148404203</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>20</v>
+      </c>
+      <c r="I45" s="2">
+        <v>160</v>
+      </c>
+      <c r="J45" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="3">
+        <v>45.2383771909983</v>
+      </c>
+      <c r="C46" s="3">
+        <v>23.196975296837099</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>60</v>
+      </c>
+      <c r="I46" s="2">
+        <v>60</v>
+      </c>
+      <c r="J46" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="3">
+        <v>88.239456724041304</v>
+      </c>
+      <c r="C47" s="3">
+        <v>60.6275438810856</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="3">
+        <v>23.914876515896999</v>
+      </c>
+      <c r="C48" s="3">
+        <v>13.2697320093872</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>40</v>
+      </c>
+      <c r="I48" s="2">
+        <v>160</v>
+      </c>
+      <c r="J48" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="3">
+        <v>48.679809312095898</v>
+      </c>
+      <c r="C49" s="3">
+        <v>18.686648434357799</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>40</v>
+      </c>
+      <c r="J49" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="3">
+        <v>56.342127515832999</v>
+      </c>
+      <c r="C50" s="3">
+        <v>32.093965825531299</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="3">
+        <v>29.4878815678113</v>
+      </c>
+      <c r="C51" s="3">
+        <v>17.5299181640735</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>20</v>
+      </c>
+      <c r="I51" s="2">
+        <v>60</v>
+      </c>
+      <c r="J51" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="3">
+        <v>124.59419966988</v>
+      </c>
+      <c r="C52" s="3">
+        <v>66.243116315941407</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>100</v>
+      </c>
+      <c r="I52" s="2">
+        <v>40</v>
+      </c>
+      <c r="J52" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="3">
+        <v>117.204810337731</v>
+      </c>
+      <c r="C53" s="3">
+        <v>58.002003863347099</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="3">
+        <v>64.663604458300696</v>
+      </c>
+      <c r="C54" s="3">
+        <v>46.750287091817803</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
+        <v>80</v>
+      </c>
+      <c r="J54" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="3">
+        <v>51.353006634058097</v>
+      </c>
+      <c r="C55" s="3">
+        <v>19.4860873318686</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>20</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="3">
+        <v>64.082647364219198</v>
+      </c>
+      <c r="C56" s="3">
+        <v>41.783769348464503</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="3">
+        <v>92.443752650627601</v>
+      </c>
+      <c r="C57" s="3">
+        <v>58.462823993713997</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>100</v>
+      </c>
+      <c r="I57" s="2">
+        <v>120</v>
+      </c>
+      <c r="J57" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="3">
+        <v>44.848562592395197</v>
+      </c>
+      <c r="C58" s="3">
+        <v>26.6974222122121</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>100</v>
+      </c>
+      <c r="I58" s="2">
+        <v>60</v>
+      </c>
+      <c r="J58" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="3">
+        <v>81.912466269649101</v>
+      </c>
+      <c r="C59" s="3">
+        <v>66.543482099101098</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>40</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="3">
+        <v>84.471876461916096</v>
+      </c>
+      <c r="C60" s="3">
+        <v>50.791112259881302</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>60</v>
+      </c>
+      <c r="J60" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="3">
+        <v>71.223717415357996</v>
+      </c>
+      <c r="C61" s="3">
+        <v>38.481481261958997</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>140</v>
+      </c>
+      <c r="J61" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>120</v>
+      </c>
+      <c r="I63" s="2">
+        <v>60</v>
+      </c>
+      <c r="J63" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>20</v>
+      </c>
+      <c r="J64" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>80</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2">
+        <v>40</v>
+      </c>
+      <c r="J67" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2">
+        <v>80</v>
+      </c>
+      <c r="J69" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>40</v>
+      </c>
+      <c r="I70" s="2">
+        <v>120</v>
+      </c>
+      <c r="J70" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2">
+        <v>20</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>40</v>
+      </c>
+      <c r="I72" s="2">
+        <v>80</v>
+      </c>
+      <c r="J72" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2">
+        <v>20</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2">
+        <v>60</v>
+      </c>
+      <c r="I75" s="2">
+        <v>120</v>
+      </c>
+      <c r="J75" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0</v>
+      </c>
+      <c r="H76" s="2">
+        <v>40</v>
+      </c>
+      <c r="I76" s="2">
+        <v>80</v>
+      </c>
+      <c r="J76" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0</v>
+      </c>
+      <c r="H77" s="2">
+        <v>20</v>
+      </c>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2">
+        <v>80</v>
+      </c>
+      <c r="J78" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
+      <c r="I79" s="2">
+        <v>20</v>
+      </c>
+      <c r="J79" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0</v>
+      </c>
+      <c r="H81" s="2">
+        <v>80</v>
+      </c>
+      <c r="I81" s="2">
+        <v>40</v>
+      </c>
+      <c r="J81" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0</v>
+      </c>
+      <c r="I82" s="2">
+        <v>120</v>
+      </c>
+      <c r="J82" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0</v>
+      </c>
+      <c r="H84" s="2">
+        <v>20</v>
+      </c>
+      <c r="I84" s="2">
+        <v>80</v>
+      </c>
+      <c r="J84" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0</v>
+      </c>
+      <c r="H85" s="2">
+        <v>40</v>
+      </c>
+      <c r="I85" s="2">
+        <v>120</v>
+      </c>
+      <c r="J85" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0</v>
+      </c>
+      <c r="H86" s="2">
+        <v>20</v>
+      </c>
+      <c r="I86" s="2">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0</v>
+      </c>
+      <c r="H87" s="2">
+        <v>80</v>
+      </c>
+      <c r="I87" s="2">
+        <v>40</v>
+      </c>
+      <c r="J87" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0</v>
+      </c>
+      <c r="I88" s="2">
+        <v>40</v>
+      </c>
+      <c r="J88" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0</v>
+      </c>
+      <c r="I89" s="2">
+        <v>40</v>
+      </c>
+      <c r="J89" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
+      <c r="H91" s="2">
+        <v>20</v>
+      </c>
+      <c r="I91" s="2">
+        <v>80</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0</v>
+      </c>
+      <c r="I92" s="2">
+        <v>0</v>
+      </c>
+      <c r="J92" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0</v>
+      </c>
+      <c r="H93" s="2">
+        <v>60</v>
+      </c>
+      <c r="I93" s="2">
+        <v>20</v>
+      </c>
+      <c r="J93" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0</v>
+      </c>
+      <c r="H94" s="2">
+        <v>80</v>
+      </c>
+      <c r="I94" s="2">
+        <v>120</v>
+      </c>
+      <c r="J94" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0</v>
+      </c>
+      <c r="I95" s="2">
+        <v>60</v>
+      </c>
+      <c r="J95" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0</v>
+      </c>
+      <c r="I96" s="2">
+        <v>60</v>
+      </c>
+      <c r="J96" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0</v>
+      </c>
+      <c r="H97" s="2">
+        <v>0</v>
+      </c>
+      <c r="I97" s="2">
+        <v>0</v>
+      </c>
+      <c r="J97" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0</v>
+      </c>
+      <c r="H98" s="2">
+        <v>0</v>
+      </c>
+      <c r="I98" s="2">
+        <v>0</v>
+      </c>
+      <c r="J98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G99" s="2">
+        <v>0</v>
+      </c>
+      <c r="H99" s="2">
+        <v>60</v>
+      </c>
+      <c r="I99" s="2">
+        <v>80</v>
+      </c>
+      <c r="J99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0</v>
+      </c>
+      <c r="H100" s="2">
+        <v>40</v>
+      </c>
+      <c r="I100" s="2">
+        <v>40</v>
+      </c>
+      <c r="J100" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0</v>
+      </c>
+      <c r="H101" s="2">
+        <v>0</v>
+      </c>
+      <c r="I101" s="2">
+        <v>20</v>
+      </c>
+      <c r="J101" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2">
+        <v>40</v>
+      </c>
+      <c r="I102" s="2">
+        <v>0</v>
+      </c>
+      <c r="J102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G103" s="2">
+        <v>0</v>
+      </c>
+      <c r="H103" s="2">
+        <v>20</v>
+      </c>
+      <c r="I103" s="2">
+        <v>60</v>
+      </c>
+      <c r="J103" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0</v>
+      </c>
+      <c r="H104" s="2">
+        <v>0</v>
+      </c>
+      <c r="I104" s="2">
+        <v>0</v>
+      </c>
+      <c r="J104" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F105" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0</v>
+      </c>
+      <c r="H105" s="2">
+        <v>20</v>
+      </c>
+      <c r="I105" s="2">
+        <v>0</v>
+      </c>
+      <c r="J105" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0</v>
+      </c>
+      <c r="H106" s="2">
+        <v>80</v>
+      </c>
+      <c r="I106" s="2">
+        <v>20</v>
+      </c>
+      <c r="J106" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G107" s="2">
+        <v>0</v>
+      </c>
+      <c r="H107" s="2">
+        <v>0</v>
+      </c>
+      <c r="I107" s="2">
+        <v>0</v>
+      </c>
+      <c r="J107" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G108" s="2">
+        <v>0</v>
+      </c>
+      <c r="H108" s="2">
+        <v>20</v>
+      </c>
+      <c r="I108" s="2">
+        <v>20</v>
+      </c>
+      <c r="J108" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G109" s="2">
+        <v>0</v>
+      </c>
+      <c r="H109" s="2">
+        <v>0</v>
+      </c>
+      <c r="I109" s="2">
+        <v>40</v>
+      </c>
+      <c r="J109" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G110" s="2">
+        <v>0</v>
+      </c>
+      <c r="H110" s="2">
+        <v>0</v>
+      </c>
+      <c r="I110" s="2">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F111" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" s="2">
+        <v>0</v>
+      </c>
+      <c r="H111" s="2">
+        <v>40</v>
+      </c>
+      <c r="I111" s="2">
+        <v>20</v>
+      </c>
+      <c r="J111" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G112" s="2">
+        <v>0</v>
+      </c>
+      <c r="H112" s="2">
+        <v>20</v>
+      </c>
+      <c r="I112" s="2">
+        <v>40</v>
+      </c>
+      <c r="J112" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G113" s="2">
+        <v>0</v>
+      </c>
+      <c r="H113" s="2">
+        <v>0</v>
+      </c>
+      <c r="I113" s="2">
+        <v>80</v>
+      </c>
+      <c r="J113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0</v>
+      </c>
+      <c r="H114" s="2">
+        <v>0</v>
+      </c>
+      <c r="I114" s="2">
+        <v>20</v>
+      </c>
+      <c r="J114" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G115" s="2">
+        <v>0</v>
+      </c>
+      <c r="H115" s="2">
+        <v>20</v>
+      </c>
+      <c r="I115" s="2">
+        <v>40</v>
+      </c>
+      <c r="J115" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G116" s="2">
+        <v>0</v>
+      </c>
+      <c r="H116" s="2">
+        <v>0</v>
+      </c>
+      <c r="I116" s="2">
+        <v>0</v>
+      </c>
+      <c r="J116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G117" s="2">
+        <v>0</v>
+      </c>
+      <c r="H117" s="2">
+        <v>0</v>
+      </c>
+      <c r="I117" s="2">
+        <v>0</v>
+      </c>
+      <c r="J117" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G118" s="2">
+        <v>0</v>
+      </c>
+      <c r="H118" s="2">
+        <v>0</v>
+      </c>
+      <c r="I118" s="2">
+        <v>40</v>
+      </c>
+      <c r="J118" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="119" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G119" s="2">
+        <v>0</v>
+      </c>
+      <c r="H119" s="2">
+        <v>0</v>
+      </c>
+      <c r="I119" s="2">
+        <v>0</v>
+      </c>
+      <c r="J119" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G120" s="2">
+        <v>0</v>
+      </c>
+      <c r="H120" s="2">
+        <v>40</v>
+      </c>
+      <c r="I120" s="2">
+        <v>0</v>
+      </c>
+      <c r="J120" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="121" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G121" s="2">
+        <v>0</v>
+      </c>
+      <c r="H121" s="2">
+        <v>0</v>
+      </c>
+      <c r="I121" s="2">
+        <v>100</v>
+      </c>
+      <c r="J121" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G122" s="2">
+        <v>0</v>
+      </c>
+      <c r="H122" s="2">
+        <v>60</v>
+      </c>
+      <c r="I122" s="2">
+        <v>40</v>
+      </c>
+      <c r="J122" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" s="2">
+        <v>0</v>
+      </c>
+      <c r="H123" s="2">
+        <v>100</v>
+      </c>
+      <c r="I123" s="2">
+        <v>40</v>
+      </c>
+      <c r="J123" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124" s="2">
+        <v>0</v>
+      </c>
+      <c r="H124" s="2">
+        <v>0</v>
+      </c>
+      <c r="I124" s="2">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G125" s="2">
+        <v>0</v>
+      </c>
+      <c r="H125" s="2">
+        <v>0</v>
+      </c>
+      <c r="I125" s="2">
+        <v>120</v>
+      </c>
+      <c r="J125" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G126" s="2">
+        <v>0</v>
+      </c>
+      <c r="H126" s="2">
+        <v>0</v>
+      </c>
+      <c r="I126" s="2">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G127" s="2">
+        <v>0</v>
+      </c>
+      <c r="H127" s="2">
+        <v>0</v>
+      </c>
+      <c r="I127" s="2">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G128" s="2">
+        <v>0</v>
+      </c>
+      <c r="H128" s="2">
+        <v>0</v>
+      </c>
+      <c r="I128" s="2">
+        <v>100</v>
+      </c>
+      <c r="J128" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G129" s="2">
+        <v>0</v>
+      </c>
+      <c r="H129" s="2">
+        <v>0</v>
+      </c>
+      <c r="I129" s="2">
+        <v>60</v>
+      </c>
+      <c r="J129" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G130" s="2">
+        <v>0</v>
+      </c>
+      <c r="H130" s="2">
+        <v>0</v>
+      </c>
+      <c r="I130" s="2">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="131" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G131" s="2">
+        <v>0</v>
+      </c>
+      <c r="H131" s="2">
+        <v>0</v>
+      </c>
+      <c r="I131" s="2">
+        <v>20</v>
+      </c>
+      <c r="J131" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G132" s="2">
+        <v>0</v>
+      </c>
+      <c r="H132" s="2">
+        <v>0</v>
+      </c>
+      <c r="I132" s="2">
+        <v>40</v>
+      </c>
+      <c r="J132" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G133" s="2">
+        <v>0</v>
+      </c>
+      <c r="H133" s="2">
+        <v>0</v>
+      </c>
+      <c r="I133" s="2">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G134" s="2">
+        <v>0</v>
+      </c>
+      <c r="H134" s="2">
+        <v>0</v>
+      </c>
+      <c r="I134" s="2">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G135" s="2">
+        <v>0</v>
+      </c>
+      <c r="H135" s="2">
+        <v>20</v>
+      </c>
+      <c r="I135" s="2">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G136" s="2">
+        <v>0</v>
+      </c>
+      <c r="H136" s="2">
+        <v>0</v>
+      </c>
+      <c r="I136" s="2">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G137" s="2">
+        <v>0</v>
+      </c>
+      <c r="H137" s="2">
+        <v>0</v>
+      </c>
+      <c r="I137" s="2">
+        <v>20</v>
+      </c>
+      <c r="J137" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G138" s="2">
+        <v>0</v>
+      </c>
+      <c r="H138" s="2">
+        <v>0</v>
+      </c>
+      <c r="I138" s="2">
+        <v>40</v>
+      </c>
+      <c r="J138" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F139" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G139" s="2">
+        <v>0</v>
+      </c>
+      <c r="H139" s="2">
+        <v>0</v>
+      </c>
+      <c r="I139" s="2">
+        <v>0</v>
+      </c>
+      <c r="J139" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G140" s="2">
+        <v>0</v>
+      </c>
+      <c r="H140" s="2">
+        <v>20</v>
+      </c>
+      <c r="I140" s="2">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G141" s="2">
+        <v>0</v>
+      </c>
+      <c r="H141" s="2">
+        <v>0</v>
+      </c>
+      <c r="I141" s="2">
+        <v>80</v>
+      </c>
+      <c r="J141" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G142" s="2">
+        <v>0</v>
+      </c>
+      <c r="H142" s="2">
+        <v>0</v>
+      </c>
+      <c r="I142" s="2">
+        <v>20</v>
+      </c>
+      <c r="J142" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0</v>
+      </c>
+      <c r="H143" s="2">
+        <v>0</v>
+      </c>
+      <c r="I143" s="2">
+        <v>40</v>
+      </c>
+      <c r="J143" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G144" s="2">
+        <v>0</v>
+      </c>
+      <c r="H144" s="2">
+        <v>20</v>
+      </c>
+      <c r="I144" s="2">
+        <v>80</v>
+      </c>
+      <c r="J144" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G145" s="2">
+        <v>0</v>
+      </c>
+      <c r="H145" s="2">
+        <v>0</v>
+      </c>
+      <c r="I145" s="2">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G146" s="2">
+        <v>0</v>
+      </c>
+      <c r="H146" s="2">
+        <v>0</v>
+      </c>
+      <c r="I146" s="2">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G147" s="2">
+        <v>0</v>
+      </c>
+      <c r="H147" s="2">
+        <v>20</v>
+      </c>
+      <c r="I147" s="2">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="148" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G148" s="2">
+        <v>0</v>
+      </c>
+      <c r="H148" s="2">
+        <v>0</v>
+      </c>
+      <c r="I148" s="2">
+        <v>0</v>
+      </c>
+      <c r="J148" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G149" s="2">
+        <v>0</v>
+      </c>
+      <c r="H149" s="2">
+        <v>0</v>
+      </c>
+      <c r="I149" s="2">
+        <v>60</v>
+      </c>
+      <c r="J149" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="150" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G150" s="2">
+        <v>0</v>
+      </c>
+      <c r="H150" s="2">
+        <v>0</v>
+      </c>
+      <c r="I150" s="2">
+        <v>40</v>
+      </c>
+      <c r="J150" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G151" s="2">
+        <v>0</v>
+      </c>
+      <c r="H151" s="2">
+        <v>0</v>
+      </c>
+      <c r="I151" s="2">
+        <v>0</v>
+      </c>
+      <c r="J151" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="152" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F152" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G152" s="2">
+        <v>0</v>
+      </c>
+      <c r="H152" s="2">
+        <v>0</v>
+      </c>
+      <c r="I152" s="2">
+        <v>0</v>
+      </c>
+      <c r="J152" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="153" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F153" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G153" s="2">
+        <v>0</v>
+      </c>
+      <c r="H153" s="2">
+        <v>0</v>
+      </c>
+      <c r="I153" s="2">
+        <v>0</v>
+      </c>
+      <c r="J153" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="154" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F154" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G154" s="2">
+        <v>0</v>
+      </c>
+      <c r="H154" s="2">
+        <v>0</v>
+      </c>
+      <c r="I154" s="2">
+        <v>0</v>
+      </c>
+      <c r="J154" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G155" s="2">
+        <v>0</v>
+      </c>
+      <c r="H155" s="2">
+        <v>0</v>
+      </c>
+      <c r="I155" s="2">
+        <v>0</v>
+      </c>
+      <c r="J155" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="156" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G156" s="2">
+        <v>0</v>
+      </c>
+      <c r="H156" s="2">
+        <v>0</v>
+      </c>
+      <c r="I156" s="2">
+        <v>0</v>
+      </c>
+      <c r="J156" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G157" s="2">
+        <v>0</v>
+      </c>
+      <c r="H157" s="2">
+        <v>0</v>
+      </c>
+      <c r="I157" s="2">
+        <v>40</v>
+      </c>
+      <c r="J157" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G158" s="2">
+        <v>20</v>
+      </c>
+      <c r="H158" s="2">
+        <v>0</v>
+      </c>
+      <c r="I158" s="2">
+        <v>0</v>
+      </c>
+      <c r="J158" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G159" s="2">
+        <v>0</v>
+      </c>
+      <c r="H159" s="2">
+        <v>0</v>
+      </c>
+      <c r="I159" s="2">
+        <v>0</v>
+      </c>
+      <c r="J159" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="160" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F160" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G160" s="2">
+        <v>0</v>
+      </c>
+      <c r="H160" s="2">
+        <v>0</v>
+      </c>
+      <c r="I160" s="2">
+        <v>80</v>
+      </c>
+      <c r="J160" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F161" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G161" s="2">
+        <v>0</v>
+      </c>
+      <c r="H161" s="2">
+        <v>40</v>
+      </c>
+      <c r="I161" s="2">
+        <v>60</v>
+      </c>
+      <c r="J161" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G162" s="2">
+        <v>0</v>
+      </c>
+      <c r="H162" s="2">
+        <v>0</v>
+      </c>
+      <c r="I162" s="2">
+        <v>0</v>
+      </c>
+      <c r="J162" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="163" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G163" s="2">
+        <v>0</v>
+      </c>
+      <c r="H163" s="2">
+        <v>0</v>
+      </c>
+      <c r="I163" s="2">
+        <v>0</v>
+      </c>
+      <c r="J163" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F164" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G164" s="2">
+        <v>0</v>
+      </c>
+      <c r="H164" s="2">
+        <v>60</v>
+      </c>
+      <c r="I164" s="2">
+        <v>20</v>
+      </c>
+      <c r="J164" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="165" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F165" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G165" s="2">
+        <v>0</v>
+      </c>
+      <c r="H165" s="2">
+        <v>0</v>
+      </c>
+      <c r="I165" s="2">
+        <v>40</v>
+      </c>
+      <c r="J165" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F166" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G166" s="2">
+        <v>0</v>
+      </c>
+      <c r="H166" s="2">
+        <v>0</v>
+      </c>
+      <c r="I166" s="2">
+        <v>20</v>
+      </c>
+      <c r="J166" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="167" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G167" s="2">
+        <v>0</v>
+      </c>
+      <c r="H167" s="2">
+        <v>0</v>
+      </c>
+      <c r="I167" s="2">
+        <v>0</v>
+      </c>
+      <c r="J167" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F168" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G168" s="2">
+        <v>0</v>
+      </c>
+      <c r="H168" s="2">
+        <v>0</v>
+      </c>
+      <c r="I168" s="2">
+        <v>0</v>
+      </c>
+      <c r="J168" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F169" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G169" s="2">
+        <v>0</v>
+      </c>
+      <c r="H169" s="2">
+        <v>0</v>
+      </c>
+      <c r="I169" s="2">
+        <v>0</v>
+      </c>
+      <c r="J169" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F170" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G170" s="2">
+        <v>20</v>
+      </c>
+      <c r="H170" s="2">
+        <v>0</v>
+      </c>
+      <c r="I170" s="2">
+        <v>0</v>
+      </c>
+      <c r="J170" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F171" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G171" s="2">
+        <v>0</v>
+      </c>
+      <c r="H171" s="2">
+        <v>60</v>
+      </c>
+      <c r="I171" s="2">
+        <v>60</v>
+      </c>
+      <c r="J171" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="172" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F172" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G172" s="2">
+        <v>0</v>
+      </c>
+      <c r="H172" s="2">
+        <v>0</v>
+      </c>
+      <c r="I172" s="2">
+        <v>0</v>
+      </c>
+      <c r="J172" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="173" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F173" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G173" s="2">
+        <v>0</v>
+      </c>
+      <c r="H173" s="2">
+        <v>60</v>
+      </c>
+      <c r="I173" s="2">
+        <v>20</v>
+      </c>
+      <c r="J173" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="174" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F174" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G174" s="2">
+        <v>0</v>
+      </c>
+      <c r="H174" s="2">
+        <v>20</v>
+      </c>
+      <c r="I174" s="2">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="175" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F175" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G175" s="2">
+        <v>0</v>
+      </c>
+      <c r="H175" s="2">
+        <v>0</v>
+      </c>
+      <c r="I175" s="2">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F176" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G176" s="2">
+        <v>0</v>
+      </c>
+      <c r="H176" s="2">
+        <v>60</v>
+      </c>
+      <c r="I176" s="2">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="177" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F177" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G177" s="2">
+        <v>0</v>
+      </c>
+      <c r="H177" s="2">
+        <v>60</v>
+      </c>
+      <c r="I177" s="2">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F178" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G178" s="2">
+        <v>0</v>
+      </c>
+      <c r="H178" s="2">
+        <v>0</v>
+      </c>
+      <c r="I178" s="2">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F179" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G179" s="2">
+        <v>0</v>
+      </c>
+      <c r="H179" s="2">
+        <v>80</v>
+      </c>
+      <c r="I179" s="2">
+        <v>100</v>
+      </c>
+      <c r="J179" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="180" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F180" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G180" s="2">
+        <v>0</v>
+      </c>
+      <c r="H180" s="2">
+        <v>0</v>
+      </c>
+      <c r="I180" s="2">
+        <v>80</v>
+      </c>
+      <c r="J180" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="181" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F181" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G181" s="2">
+        <v>0</v>
+      </c>
+      <c r="H181" s="2">
+        <v>0</v>
+      </c>
+      <c r="I181" s="2">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G182" s="2">
+        <v>20</v>
+      </c>
+      <c r="H182" s="2">
+        <v>60</v>
+      </c>
+      <c r="I182" s="2">
+        <v>20</v>
+      </c>
+      <c r="J182" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="183" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F183" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G183" s="2">
+        <v>0</v>
+      </c>
+      <c r="H183" s="2">
+        <v>0</v>
+      </c>
+      <c r="I183" s="2">
+        <v>40</v>
+      </c>
+      <c r="J183" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="184" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F184" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G184" s="2">
+        <v>0</v>
+      </c>
+      <c r="H184" s="2">
+        <v>0</v>
+      </c>
+      <c r="I184" s="2">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F185" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G185" s="2">
+        <v>0</v>
+      </c>
+      <c r="H185" s="2">
+        <v>0</v>
+      </c>
+      <c r="I185" s="2">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="186" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F186" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G186" s="2">
+        <v>0</v>
+      </c>
+      <c r="H186" s="2">
+        <v>60</v>
+      </c>
+      <c r="I186" s="2">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="187" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F187" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G187" s="2">
+        <v>0</v>
+      </c>
+      <c r="H187" s="2">
+        <v>0</v>
+      </c>
+      <c r="I187" s="2">
+        <v>0</v>
+      </c>
+      <c r="J187" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F188" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G188" s="2">
+        <v>0</v>
+      </c>
+      <c r="H188" s="2">
+        <v>120</v>
+      </c>
+      <c r="I188" s="2">
+        <v>40</v>
+      </c>
+      <c r="J188" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F189" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G189" s="2">
+        <v>0</v>
+      </c>
+      <c r="H189" s="2">
+        <v>60</v>
+      </c>
+      <c r="I189" s="2">
+        <v>40</v>
+      </c>
+      <c r="J189" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F190" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G190" s="2">
+        <v>0</v>
+      </c>
+      <c r="H190" s="2">
+        <v>0</v>
+      </c>
+      <c r="I190" s="2">
+        <v>0</v>
+      </c>
+      <c r="J190" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F191" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G191" s="2">
+        <v>0</v>
+      </c>
+      <c r="H191" s="2">
+        <v>0</v>
+      </c>
+      <c r="I191" s="2">
+        <v>40</v>
+      </c>
+      <c r="J191" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="192" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F192" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G192" s="2">
+        <v>0</v>
+      </c>
+      <c r="H192" s="2">
+        <v>0</v>
+      </c>
+      <c r="I192" s="2">
+        <v>140</v>
+      </c>
+      <c r="J192" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="193" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F193" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G193" s="2">
+        <v>0</v>
+      </c>
+      <c r="H193" s="2">
+        <v>0</v>
+      </c>
+      <c r="I193" s="2">
+        <v>0</v>
+      </c>
+      <c r="J193" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G194" s="2">
+        <v>0</v>
+      </c>
+      <c r="H194" s="2">
+        <v>0</v>
+      </c>
+      <c r="I194" s="2">
+        <v>0</v>
+      </c>
+      <c r="J194" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="195" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F195" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G195" s="2">
+        <v>0</v>
+      </c>
+      <c r="H195" s="2">
+        <v>60</v>
+      </c>
+      <c r="I195" s="2">
+        <v>0</v>
+      </c>
+      <c r="J195" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F196" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G196" s="2">
+        <v>0</v>
+      </c>
+      <c r="H196" s="2">
+        <v>0</v>
+      </c>
+      <c r="I196" s="2">
+        <v>0</v>
+      </c>
+      <c r="J196" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="197" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G197" s="2">
+        <v>0</v>
+      </c>
+      <c r="H197" s="2">
+        <v>40</v>
+      </c>
+      <c r="I197" s="2">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="198" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F198" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G198" s="2">
+        <v>0</v>
+      </c>
+      <c r="H198" s="2">
+        <v>0</v>
+      </c>
+      <c r="I198" s="2">
+        <v>80</v>
+      </c>
+      <c r="J198" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="199" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G199" s="2">
+        <v>0</v>
+      </c>
+      <c r="H199" s="2">
+        <v>0</v>
+      </c>
+      <c r="I199" s="2">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F200" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G200" s="2">
+        <v>0</v>
+      </c>
+      <c r="H200" s="2">
+        <v>0</v>
+      </c>
+      <c r="I200" s="2">
+        <v>20</v>
+      </c>
+      <c r="J200" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="201" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G201" s="2">
+        <v>0</v>
+      </c>
+      <c r="H201" s="2">
+        <v>0</v>
+      </c>
+      <c r="I201" s="2">
+        <v>20</v>
+      </c>
+      <c r="J201" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="202" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F202" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G202" s="2">
+        <v>0</v>
+      </c>
+      <c r="H202" s="2">
+        <v>0</v>
+      </c>
+      <c r="I202" s="2">
+        <v>20</v>
+      </c>
+      <c r="J202" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G203" s="2">
+        <v>0</v>
+      </c>
+      <c r="H203" s="2">
+        <v>20</v>
+      </c>
+      <c r="I203" s="2">
+        <v>80</v>
+      </c>
+      <c r="J203" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="204" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F204" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G204" s="2">
+        <v>0</v>
+      </c>
+      <c r="H204" s="2">
+        <v>20</v>
+      </c>
+      <c r="I204" s="2">
+        <v>60</v>
+      </c>
+      <c r="J204" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="205" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F205" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G205" s="2">
+        <v>0</v>
+      </c>
+      <c r="H205" s="2">
+        <v>0</v>
+      </c>
+      <c r="I205" s="2">
+        <v>20</v>
+      </c>
+      <c r="J205" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F206" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G206" s="2">
+        <v>0</v>
+      </c>
+      <c r="H206" s="2">
+        <v>0</v>
+      </c>
+      <c r="I206" s="2">
+        <v>80</v>
+      </c>
+      <c r="J206" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F207" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G207" s="2">
+        <v>0</v>
+      </c>
+      <c r="H207" s="2">
+        <v>20</v>
+      </c>
+      <c r="I207" s="2">
+        <v>0</v>
+      </c>
+      <c r="J207" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F208" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G208" s="2">
+        <v>0</v>
+      </c>
+      <c r="H208" s="2">
+        <v>0</v>
+      </c>
+      <c r="I208" s="2">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F209" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G209" s="2">
+        <v>0</v>
+      </c>
+      <c r="H209" s="2">
+        <v>40</v>
+      </c>
+      <c r="I209" s="2">
+        <v>80</v>
+      </c>
+      <c r="J209" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="210" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F210" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G210" s="2">
+        <v>0</v>
+      </c>
+      <c r="H210" s="2">
+        <v>0</v>
+      </c>
+      <c r="I210" s="2">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="211" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F211" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G211" s="2">
+        <v>0</v>
+      </c>
+      <c r="H211" s="2">
+        <v>0</v>
+      </c>
+      <c r="I211" s="2">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F212" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G212" s="2">
+        <v>0</v>
+      </c>
+      <c r="H212" s="2">
+        <v>40</v>
+      </c>
+      <c r="I212" s="2">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F213" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G213" s="2">
+        <v>0</v>
+      </c>
+      <c r="H213" s="2">
+        <v>0</v>
+      </c>
+      <c r="I213" s="2">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="214" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F214" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G214" s="2">
+        <v>0</v>
+      </c>
+      <c r="H214" s="2">
+        <v>0</v>
+      </c>
+      <c r="I214" s="2">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="215" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F215" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G215" s="2">
+        <v>0</v>
+      </c>
+      <c r="H215" s="2">
+        <v>0</v>
+      </c>
+      <c r="I215" s="2">
+        <v>140</v>
+      </c>
+      <c r="J215" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="216" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F216" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G216" s="2">
+        <v>0</v>
+      </c>
+      <c r="H216" s="2">
+        <v>0</v>
+      </c>
+      <c r="I216" s="2">
+        <v>60</v>
+      </c>
+      <c r="J216" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="217" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F217" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G217" s="2">
+        <v>0</v>
+      </c>
+      <c r="H217" s="2">
+        <v>0</v>
+      </c>
+      <c r="I217" s="2">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F218" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G218" s="2">
+        <v>20</v>
+      </c>
+      <c r="H218" s="2">
+        <v>60</v>
+      </c>
+      <c r="I218" s="2">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F219" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G219" s="2">
+        <v>0</v>
+      </c>
+      <c r="H219" s="2">
+        <v>60</v>
+      </c>
+      <c r="I219" s="2">
+        <v>80</v>
+      </c>
+      <c r="J219" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F220" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G220" s="2">
+        <v>0</v>
+      </c>
+      <c r="H220" s="2">
+        <v>0</v>
+      </c>
+      <c r="I220" s="2">
+        <v>20</v>
+      </c>
+      <c r="J220" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="221" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F221" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G221" s="2">
+        <v>0</v>
+      </c>
+      <c r="H221" s="2">
+        <v>0</v>
+      </c>
+      <c r="I221" s="2">
+        <v>60</v>
+      </c>
+      <c r="J221" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="222" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F222" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G222" s="2">
+        <v>0</v>
+      </c>
+      <c r="H222" s="2">
+        <v>0</v>
+      </c>
+      <c r="I222" s="2">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F223" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G223" s="2">
+        <v>0</v>
+      </c>
+      <c r="H223" s="2">
+        <v>0</v>
+      </c>
+      <c r="I223" s="2">
+        <v>0</v>
+      </c>
+      <c r="J223" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F224" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G224" s="2">
+        <v>0</v>
+      </c>
+      <c r="H224" s="2">
+        <v>20</v>
+      </c>
+      <c r="I224" s="2">
+        <v>0</v>
+      </c>
+      <c r="J224" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F225" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G225" s="2">
+        <v>0</v>
+      </c>
+      <c r="H225" s="2">
+        <v>0</v>
+      </c>
+      <c r="I225" s="2">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="226" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F226" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G226" s="2">
+        <v>0</v>
+      </c>
+      <c r="H226" s="2">
+        <v>0</v>
+      </c>
+      <c r="I226" s="2">
+        <v>0</v>
+      </c>
+      <c r="J226" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="227" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F227" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G227" s="2">
+        <v>0</v>
+      </c>
+      <c r="H227" s="2">
+        <v>0</v>
+      </c>
+      <c r="I227" s="2">
+        <v>60</v>
+      </c>
+      <c r="J227" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F228" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G228" s="2">
+        <v>0</v>
+      </c>
+      <c r="H228" s="2">
+        <v>20</v>
+      </c>
+      <c r="I228" s="2">
+        <v>0</v>
+      </c>
+      <c r="J228" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="229" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F229" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G229" s="2">
+        <v>0</v>
+      </c>
+      <c r="H229" s="2">
+        <v>0</v>
+      </c>
+      <c r="I229" s="2">
+        <v>0</v>
+      </c>
+      <c r="J229" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="230" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F230" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G230" s="2">
+        <v>20</v>
+      </c>
+      <c r="H230" s="2">
+        <v>0</v>
+      </c>
+      <c r="I230" s="2">
+        <v>0</v>
+      </c>
+      <c r="J230" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F231" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G231" s="2">
+        <v>0</v>
+      </c>
+      <c r="H231" s="2">
+        <v>0</v>
+      </c>
+      <c r="I231" s="2">
+        <v>20</v>
+      </c>
+      <c r="J231" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F232" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G232" s="2">
+        <v>0</v>
+      </c>
+      <c r="H232" s="2">
+        <v>0</v>
+      </c>
+      <c r="I232" s="2">
+        <v>0</v>
+      </c>
+      <c r="J232" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F233" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G233" s="2">
+        <v>0</v>
+      </c>
+      <c r="H233" s="2">
+        <v>0</v>
+      </c>
+      <c r="I233" s="2">
+        <v>40</v>
+      </c>
+      <c r="J233" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="234" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F234" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G234" s="2">
+        <v>0</v>
+      </c>
+      <c r="H234" s="2">
+        <v>80</v>
+      </c>
+      <c r="I234" s="2">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="235" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F235" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G235" s="2">
+        <v>0</v>
+      </c>
+      <c r="H235" s="2">
+        <v>0</v>
+      </c>
+      <c r="I235" s="2">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="236" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F236" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G236" s="2">
+        <v>0</v>
+      </c>
+      <c r="H236" s="2">
+        <v>0</v>
+      </c>
+      <c r="I236" s="2">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="237" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F237" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G237" s="2">
+        <v>0</v>
+      </c>
+      <c r="H237" s="2">
+        <v>60</v>
+      </c>
+      <c r="I237" s="2">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="238" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F238" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G238" s="2">
+        <v>0</v>
+      </c>
+      <c r="H238" s="2">
+        <v>0</v>
+      </c>
+      <c r="I238" s="2">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="239" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F239" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G239" s="2">
+        <v>0</v>
+      </c>
+      <c r="H239" s="2">
+        <v>0</v>
+      </c>
+      <c r="I239" s="2">
+        <v>80</v>
+      </c>
+      <c r="J239" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F240" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G240" s="2">
+        <v>0</v>
+      </c>
+      <c r="H240" s="2">
+        <v>40</v>
+      </c>
+      <c r="I240" s="2">
+        <v>20</v>
+      </c>
+      <c r="J240" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="241" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F241" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G241" s="2">
+        <v>0</v>
+      </c>
+      <c r="H241" s="2">
+        <v>0</v>
+      </c>
+      <c r="I241" s="2">
+        <v>0</v>
+      </c>
+      <c r="J241" s="2">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D059614F-D017-4C63-BBCD-93499054BC18}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>